--- a/biology/Botanique/Tofieldiaceae/Tofieldiaceae.xlsx
+++ b/biology/Botanique/Tofieldiaceae/Tofieldiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Tofieldiaceae regroupe des plantes monocotylédones. Elle comprend deux à trois douzaines d'espèces réparties en 3-5 genres.
 En France cette famille est représentée par le genre Tofieldia et par deux espèces : Tofieldia pusilla et Tofieldia calyculata.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Tofieldia donné en l'honneur du botaniste et ingénieur hydraulicien anglais Thomas Tofield (1730-1779)[1].
-Christenhusz et ses collaborateurs appellent les Tofieldiaceae "famille des fausses asphodèles"[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Tofieldia donné en l'honneur du botaniste et ingénieur hydraulicien anglais Thomas Tofield (1730-1779).
+Christenhusz et ses collaborateurs appellent les Tofieldiaceae "famille des fausses asphodèles".
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées à rosette, à inflorescences en grappe (racème) qui porte, sous chaque fleur, 1 à 3 calicules membraneux. La fleur trimère, typique des monocotylédones, présente des pétales et des sépales indifférenciés.
 </t>
@@ -575,10 +591,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] ces plantes sont incluses dans les Liliacées, certains auteurs les incorporent à la famille des Mélanthiacées.
-En classification phylogénétique APG II (2003)[3] cette famille appartient à l'ordre des Alismatales.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) ces plantes sont incluses dans les Liliacées, certains auteurs les incorporent à la famille des Mélanthiacées.
+En classification phylogénétique APG II (2003) cette famille appartient à l'ordre des Alismatales.
 </t>
         </is>
       </c>
@@ -607,15 +625,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] et NCBI  (15 avr. 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) et NCBI  (15 avr. 2010) :
 genre Harperocallis McDaniel (1968)
 genre Isidrogalvia Ruiz &amp; Pav. (1802)
 genre Pleea Michx. (1803)
 genre Tofieldia Huds., Fl. Angl. (1778)
 genre Triantha (Nutt.) Baker, J. Linn. Soc. (1879)
-Selon Angiosperm Phylogeny Website                        (19 mai 2010)[6] :
+Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 genre Harperocallis McDaniel
 genre Pleea Michaux
 genre Tofieldia Huds.</t>
@@ -646,9 +666,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010)[4] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (15 avr. 2010) :
 genre Harperocallis McDaniel (1968)
 Harperocallis flava  McDaniel (1968)
 genre Isidrogalvia Ruiz &amp; Pav. (1802)
@@ -684,7 +706,7 @@
 Triantha occidentalis subsp. montana  (C.L.Hitchc.) Packer (1993)
 Triantha occidentalis subsp. occidentalis  .
 Triantha racemosa  (Walter) Small (1903)
-Selon NCBI  (15 avr. 2010)[5] :
+Selon NCBI  (15 avr. 2010) :
 genre Harperocallis
 Harperocallis flava
 genre Isidrogalvia
